--- a/artfynd/A 34150-2021.xlsx
+++ b/artfynd/A 34150-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,6 +800,112 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112334575</v>
+      </c>
+      <c r="B3" t="n">
+        <v>89539</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>skjutbanan, Upl</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>621283</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6614833</v>
+      </c>
+      <c r="S3" t="n">
+        <v>25</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Enköping</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Litslena</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Elin Sjögren Englund</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Elin Sjögren Englund</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 34150-2021.xlsx
+++ b/artfynd/A 34150-2021.xlsx
@@ -805,7 +805,7 @@
         <v>112334575</v>
       </c>
       <c r="B3" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
